--- a/doors_detection_long_term/scripts/results/faster_rcnn_ap_real_data_different_conditions.xlsx
+++ b/doors_detection_long_term/scripts/results/faster_rcnn_ap_real_data_different_conditions.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.14606652006966717</t>
+          <t>0.15129057736768872</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.3092225318776865</t>
+          <t>0.32138692447312145</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.3462266854388159</t>
+          <t>0.3585131229758749</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.19356334109255646</t>
+          <t>0.19450481471600273</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.3761898972798168</t>
+          <t>0.40803538320038774</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.09043113578345961</t>
+          <t>0.09617117117117116</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.18925361098044563</t>
+          <t>0.20376991044272175</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.4135200961685012</t>
+          <t>0.44955676718131843</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.545888680885734</t>
+          <t>0.5499981994318174</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1416,12 +1416,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.2526476204649025</t>
+          <t>0.28271048976903196</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.06671869066605908</t>
+          <t>0.0818602656373554</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.46714912382051194</t>
+          <t>0.5311453898482065</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.5231553301148091</t>
+          <t>0.5220298712815887</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.2085839900839901</t>
+          <t>0.2222136328064399</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1691,12 +1691,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.09265391595700123</t>
+          <t>0.09748061685558919</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1746,12 +1746,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.46631605962311157</t>
+          <t>0.501472810449509</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1801,12 +1801,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.4677422948632667</t>
+          <t>0.47950473435240615</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.20066687572490433</t>
+          <t>0.20829250399460483</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.5713379114547786</t>
+          <t>0.5679143676760485</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.20082531399369868</t>
+          <t>0.20928258517345044</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2021,12 +2021,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.44236257990720007</t>
+          <t>0.4393890240682446</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.11118833646028768</t>
+          <t>0.12333794304191023</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2131,12 +2131,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.484379753459697</t>
+          <t>0.4812807068962029</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.2240151799420092</t>
+          <t>0.2324430220941847</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2241,12 +2241,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.5429533724739811</t>
+          <t>0.5406023328306225</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.25823823321868156</t>
+          <t>0.30001572637103285</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.6104476831976858</t>
+          <t>0.6086962679559784</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.36518045449788866</t>
+          <t>0.39538691387187347</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.493964383480761</t>
+          <t>0.5036228938176992</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2516,12 +2516,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.304643860641847</t>
+          <t>0.3052901404906269</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2571,12 +2571,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.5978994323031283</t>
+          <t>0.5959787104131968</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.38175678411329084</t>
+          <t>0.40343632251425127</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.5954396520425601</t>
+          <t>0.5998538129324469</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2736,12 +2736,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.47741554667277303</t>
+          <t>0.49740907291781705</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2791,12 +2791,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.590263563648553</t>
+          <t>0.6032966581929072</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.43184332669085207</t>
+          <t>0.4461258257327663</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.6752640445836164</t>
+          <t>0.6919288387510135</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2956,12 +2956,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.38157833696209875</t>
+          <t>0.40687474437022103</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.6401525041457847</t>
+          <t>0.6692708654936687</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3066,12 +3066,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.4369498499297768</t>
+          <t>0.45124413928913004</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3121,12 +3121,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.61818581117933</t>
+          <t>0.6369696442783419</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3176,12 +3176,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.5414855894658582</t>
+          <t>0.5632751471433535</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3231,12 +3231,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.7062664552159346</t>
+          <t>0.7126027191617627</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.48534416604769104</t>
+          <t>0.5491062813046539</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3341,12 +3341,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.6618897424670349</t>
+          <t>0.6674214245184913</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.5459119249412413</t>
+          <t>0.5625416977834566</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.6788628443908198</t>
+          <t>0.6842920237587228</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.5375595291805999</t>
+          <t>0.5654914805884972</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3561,12 +3561,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.47560180395484486</t>
+          <t>0.4850992726464822</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.19481525174172226</t>
+          <t>0.2026192798002247</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3671,12 +3671,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.4160796065966985</t>
+          <t>0.4345621943479519</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3726,12 +3726,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.2962442559431384</t>
+          <t>0.29140384459301144</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.4561691235926053</t>
+          <t>0.45579476674206176</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.14374700101596652</t>
+          <t>0.15182166473674338</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3891,12 +3891,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.26191167983078467</t>
+          <t>0.2678848259634164</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4001,12 +4001,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.5971243090595514</t>
+          <t>0.5966031499405497</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.1935585897530604</t>
+          <t>0.22011386277319644</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.6669143992395629</t>
+          <t>0.6603831452799078</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.43029045019141304</t>
+          <t>0.45306011213526104</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.5611946809818021</t>
+          <t>0.5690001912507578</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4276,12 +4276,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.22122153281676962</t>
+          <t>0.26480871919288196</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4331,12 +4331,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.6164258890770927</t>
+          <t>0.6128512262731429</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.38474236536748724</t>
+          <t>0.40079185727094196</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.5962253818096113</t>
+          <t>0.6005604724851372</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4496,12 +4496,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.45170602979659513</t>
+          <t>0.48772565361151426</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4551,12 +4551,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.6630828271545953</t>
+          <t>0.6628174889660432</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.388229156847062</t>
+          <t>0.4291752781896649</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4661,12 +4661,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.6283936561916529</t>
+          <t>0.6315812489662018</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4716,12 +4716,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.432100287994742</t>
+          <t>0.45617733361598684</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.6676255108652857</t>
+          <t>0.6648459975843078</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.41932425561254205</t>
+          <t>0.45122935087139876</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4881,12 +4881,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.6348327675051076</t>
+          <t>0.6471430099196951</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4936,12 +4936,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.6034505000900353</t>
+          <t>0.645770218963185</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4991,12 +4991,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0.6754572305687045</t>
+          <t>0.6814123463994041</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5046,12 +5046,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.5106234974553594</t>
+          <t>0.5623789581784022</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5101,12 +5101,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.6656980086244173</t>
+          <t>0.6717481512464876</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5156,12 +5156,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.5569757533849756</t>
+          <t>0.6082781348373286</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5211,12 +5211,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.6770618058775876</t>
+          <t>0.6891575224666985</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5266,12 +5266,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.5188781946363407</t>
+          <t>0.5697774582243192</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5321,12 +5321,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.42278197258994205</t>
+          <t>0.44117971581011484</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5376,12 +5376,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.24694509962353786</t>
+          <t>0.2382795218308319</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.4677372999514157</t>
+          <t>0.47473068409507135</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.2652264673853024</t>
+          <t>0.2873612426719847</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5541,12 +5541,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.4942699364127213</t>
+          <t>0.4984949277536001</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5596,12 +5596,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.14184967663915035</t>
+          <t>0.14712014652014654</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5651,12 +5651,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.471683713171122</t>
+          <t>0.4705131453046282</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.2639840570635365</t>
+          <t>0.29354693554271677</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5806,7 +5806,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.5692031013467218</t>
+          <t>0.5684558348526588</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5816,12 +5816,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.28122088003864515</t>
+          <t>0.31210964799099933</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.6198245810399209</t>
+          <t>0.6175148716031875</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.33375080010532626</t>
+          <t>0.36166319476223374</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5981,12 +5981,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0.517245897882172</t>
+          <t>0.5114477934312636</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0.17468840125391855</t>
+          <t>0.19135190615835784</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.6247732848242145</t>
+          <t>0.6259286875179111</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6146,12 +6146,12 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0.3525213230223531</t>
+          <t>0.37400070962581666</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6201,12 +6201,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>0.6802468052626635</t>
+          <t>0.6776201577603592</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0.3108601385049733</t>
+          <t>0.3552237181678524</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0.6733610213729184</t>
+          <t>0.6772787238631459</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6366,12 +6366,12 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0.36986455913426874</t>
+          <t>0.4081558657834186</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6421,12 +6421,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>0.6479616834651687</t>
+          <t>0.6621075095133698</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6476,12 +6476,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>0.41598982630720677</t>
+          <t>0.4550132435890632</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6531,12 +6531,12 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0.6771268003300293</t>
+          <t>0.6830053679733029</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6586,7 +6586,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0.48445642492595825</t>
+          <t>0.5304140788367889</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6641,12 +6641,12 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>76</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0.6129825985425473</t>
+          <t>0.6320601870621221</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6696,12 +6696,12 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0.5588311541196715</t>
+          <t>0.5827182864945435</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0.595058933599567</t>
+          <t>0.6076278582673423</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6806,12 +6806,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>0.5351601641003739</t>
+          <t>0.5530148355480176</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6861,12 +6861,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0.6047150360361738</t>
+          <t>0.628921066980788</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6916,12 +6916,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>0.5128262584457415</t>
+          <t>0.5413165888284345</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6971,12 +6971,12 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>0.6708008633965841</t>
+          <t>0.6961031200039475</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7026,12 +7026,12 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>0.43604008637471114</t>
+          <t>0.4792731830422831</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7081,12 +7081,12 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>0.36233916216890716</t>
+          <t>0.3699685620302217</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -7136,12 +7136,12 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>0.3771154497039082</t>
+          <t>0.4125196151152136</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7191,12 +7191,12 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>0.5208598136267074</t>
+          <t>0.5165144146495501</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -7246,12 +7246,12 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>0.4213518355581301</t>
+          <t>0.5073141959441554</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7301,12 +7301,12 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>0.415923912703091</t>
+          <t>0.39280567569627123</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7356,12 +7356,12 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>0.32104596643285527</t>
+          <t>0.41137834878512286</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7411,12 +7411,12 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>0.40939062050632236</t>
+          <t>0.4044549874624299</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7466,12 +7466,12 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>0.42278484757025764</t>
+          <t>0.5052308508100548</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7521,12 +7521,12 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>0.2757161293550602</t>
+          <t>0.3330731817052322</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>0.41901253843594305</t>
+          <t>0.5087523574284205</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7631,12 +7631,12 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>0.44323107260326516</t>
+          <t>0.4708017617028646</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7686,12 +7686,12 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>0.4856662387240961</t>
+          <t>0.5679872880438817</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -7741,12 +7741,12 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>0.3519155162785761</t>
+          <t>0.45518326306010015</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>0.4557310892749609</t>
+          <t>0.5266356144253503</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7851,12 +7851,12 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>0.4176814077091084</t>
+          <t>0.4506337423207517</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7906,12 +7906,12 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>0.510900499808945</t>
+          <t>0.6279395031290482</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7961,12 +7961,12 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>0.5268292539301447</t>
+          <t>0.5406068801140126</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -8016,12 +8016,12 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>0.5310818021276348</t>
+          <t>0.6138664510886405</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -8071,12 +8071,12 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>0.581411230767066</t>
+          <t>0.5997597944981999</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8126,12 +8126,12 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>0.5422124946389179</t>
+          <t>0.650219571688646</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -8181,12 +8181,12 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>0.5405532017021806</t>
+          <t>0.5618799944357187</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8236,12 +8236,12 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>0.5418761203193552</t>
+          <t>0.6312177468698381</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -8291,12 +8291,12 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>0.6213695383088145</t>
+          <t>0.6418678063456915</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -8346,12 +8346,12 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>0.5335990079098918</t>
+          <t>0.6083928211236289</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -8401,12 +8401,12 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>0.6223740647343966</t>
+          <t>0.643729375790682</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -8456,12 +8456,12 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>0.5467095948712088</t>
+          <t>0.6568390420779443</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -8511,12 +8511,12 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>0.6830959640305923</t>
+          <t>0.703086345458492</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -8566,12 +8566,12 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>0.537932086002164</t>
+          <t>0.6288146468397855</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -8621,12 +8621,12 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>0.5938384817094585</t>
+          <t>0.6093056403227284</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -8676,12 +8676,12 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>0.5773411960375101</t>
+          <t>0.6880628799216814</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -8731,12 +8731,12 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -8776,7 +8776,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>0.7098536757694494</t>
+          <t>0.7262991230895098</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -8786,12 +8786,12 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>0.5239081432499111</t>
+          <t>0.6593850048861108</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>0.4786557457800349</t>
+          <t>0.45319382643247547</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -8896,12 +8896,12 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>0.3556306383500376</t>
+          <t>0.3813752057871049</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8951,12 +8951,12 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>0.5098036599167418</t>
+          <t>0.5053838503640871</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -9006,12 +9006,12 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>0.38862450451823227</t>
+          <t>0.4900031266813298</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -9061,12 +9061,12 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>0.43915488777022876</t>
+          <t>0.4256679276076316</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -9116,12 +9116,12 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>0.27725579653925286</t>
+          <t>0.2746743247390325</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -9171,12 +9171,12 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>0.46127294168942184</t>
+          <t>0.4729562519636948</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -9226,12 +9226,12 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>0.3429852631668987</t>
+          <t>0.3833509039115625</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -9281,12 +9281,12 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -9326,7 +9326,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>0.3172457307838091</t>
+          <t>0.37480533208365907</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -9336,12 +9336,12 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>0.40211161305893445</t>
+          <t>0.5130452264152678</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -9391,12 +9391,12 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -9436,7 +9436,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>0.49373295630129493</t>
+          <t>0.5256235100763669</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -9446,12 +9446,12 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>0.4747022720841858</t>
+          <t>0.5476138132333987</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -9501,12 +9501,12 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>0.44721941205471266</t>
+          <t>0.4661765517945211</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -9556,12 +9556,12 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>0.45374313473298006</t>
+          <t>0.517983076817719</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -9611,12 +9611,12 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>0.42325586646478336</t>
+          <t>0.4477058558432539</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -9666,12 +9666,12 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>0.5281980033262437</t>
+          <t>0.6417400245466391</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -9721,12 +9721,12 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>0.5522377857723083</t>
+          <t>0.5988529262671556</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -9776,12 +9776,12 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -9821,7 +9821,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>0.5246946525265875</t>
+          <t>0.6290169101579919</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -9831,12 +9831,12 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9876,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>0.6516270498445506</t>
+          <t>0.6756541357130031</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -9886,12 +9886,12 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>0.48634870562115884</t>
+          <t>0.5652928050367088</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -9941,12 +9941,12 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -9986,7 +9986,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>0.6005936392123205</t>
+          <t>0.61527343665158</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -9996,12 +9996,12 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>0.5063929335677713</t>
+          <t>0.623369482325532</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -10051,12 +10051,12 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -10096,7 +10096,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>0.656831989616874</t>
+          <t>0.6630682876599701</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -10106,12 +10106,12 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>0.5304624842751212</t>
+          <t>0.6566226275111533</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -10161,12 +10161,12 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>0.6925704203130817</t>
+          <t>0.7122431352648653</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -10216,12 +10216,12 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -10261,7 +10261,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>0.5105342787421236</t>
+          <t>0.6180942676582716</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -10271,12 +10271,12 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -10316,7 +10316,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>0.7065974842684847</t>
+          <t>0.7460176718110616</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -10326,12 +10326,12 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -10371,7 +10371,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>0.5116282321619985</t>
+          <t>0.6382216098100839</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -10381,12 +10381,12 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -10426,7 +10426,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>0.7166111125964216</t>
+          <t>0.7370571425967963</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>0.5312941769031435</t>
+          <t>0.6703650931771673</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -10491,12 +10491,12 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>0.7003562970383734</t>
+          <t>0.7124668210195548</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -10546,12 +10546,12 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -10591,7 +10591,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>0.5266207697983541</t>
+          <t>0.6375500591191646</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -10601,12 +10601,12 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -10646,7 +10646,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>0.423482202109244</t>
+          <t>0.40962952629434635</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -10656,12 +10656,12 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>0.32548036442624845</t>
+          <t>0.39664158623309226</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -10711,12 +10711,12 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -10756,7 +10756,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>0.4868110115369334</t>
+          <t>0.48429504085339564</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -10766,12 +10766,12 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -10811,7 +10811,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>0.4010180635085305</t>
+          <t>0.49180329621924296</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -10821,12 +10821,12 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10866,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>0.39598078435166095</t>
+          <t>0.3978376808029647</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -10876,12 +10876,12 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>0.30458798613473625</t>
+          <t>0.31595340608546874</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -10931,12 +10931,12 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>0.4692976199783913</t>
+          <t>0.4552783550071642</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -10986,12 +10986,12 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>0.45537108881482563</t>
+          <t>0.5360688166321439</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -11041,12 +11041,12 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -11086,7 +11086,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>0.5238964654685808</t>
+          <t>0.5852738265735684</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -11096,12 +11096,12 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -11141,7 +11141,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>0.5131363091647504</t>
+          <t>0.5849642809893945</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -11151,12 +11151,12 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>0.4296777859556979</t>
+          <t>0.4723504608772295</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -11206,12 +11206,12 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -11251,7 +11251,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>0.4978204102000443</t>
+          <t>0.5881629658999687</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -11261,12 +11261,12 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -11306,7 +11306,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>0.29913337178618693</t>
+          <t>0.3824806271487069</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -11316,12 +11316,12 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -11361,7 +11361,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>0.39440014224164754</t>
+          <t>0.4718123213981856</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -11371,12 +11371,12 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -11416,7 +11416,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>0.5417834629606931</t>
+          <t>0.559636835324269</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -11426,12 +11426,12 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>0.4764841076587559</t>
+          <t>0.5506379237736142</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -11481,12 +11481,12 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11526,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>0.5668828505615957</t>
+          <t>0.5781238975776235</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -11536,12 +11536,12 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -11581,7 +11581,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>0.509106217788533</t>
+          <t>0.6128470858655772</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -11591,12 +11591,12 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -11636,7 +11636,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>0.6596042224777875</t>
+          <t>0.7012405611629033</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -11646,12 +11646,12 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>0.5241061117508695</t>
+          <t>0.6361913425363178</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -11701,12 +11701,12 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>0.5544555549971959</t>
+          <t>0.5780200269716996</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -11756,12 +11756,12 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -11801,7 +11801,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>0.5375146196469989</t>
+          <t>0.6165782824190943</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -11811,12 +11811,12 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>0.6381846606789937</t>
+          <t>0.641749180643002</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -11866,12 +11866,12 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>0.49026961665393143</t>
+          <t>0.585050496589415</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -11921,12 +11921,12 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -11966,7 +11966,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>0.674940212247154</t>
+          <t>0.6969654107276643</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -11976,12 +11976,12 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>0.5450917376974418</t>
+          <t>0.6778983036291107</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -12031,12 +12031,12 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -12076,7 +12076,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>0.7239360485172892</t>
+          <t>0.76243670486543</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -12086,12 +12086,12 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -12131,7 +12131,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>0.5493658244211179</t>
+          <t>0.6580461104957036</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -12141,12 +12141,12 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12186,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>0.5893008715027354</t>
+          <t>0.6055490068919078</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -12196,12 +12196,12 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -12241,7 +12241,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>0.5584621108916178</t>
+          <t>0.6226172329909477</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -12251,12 +12251,12 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -12296,7 +12296,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>0.7272580673060093</t>
+          <t>0.7466118446660223</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -12306,12 +12306,12 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>0.5485746734079539</t>
+          <t>0.6734279889102283</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -12361,12 +12361,12 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
     </row>

--- a/doors_detection_long_term/scripts/results/faster_rcnn_ap_real_data_different_conditions.xlsx
+++ b/doors_detection_long_term/scripts/results/faster_rcnn_ap_real_data_different_conditions.xlsx
@@ -526,22 +526,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.5389633427878532</t>
+          <t>0.46262583759670933</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>282</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.15129057736768872</t>
+          <t>0.15622049693110385</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.04561403508771931</t>
+          <t>0.027939525978741653</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>142</t>
         </is>
       </c>
     </row>
@@ -691,22 +691,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.32138692447312145</t>
+          <t>0.29915498487383163</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -746,22 +746,22 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.41532799938084547</t>
+          <t>0.3614236410429615</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>212</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -801,22 +801,22 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.1530843016228974</t>
+          <t>0.15706566236391034</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -856,22 +856,22 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.013850415512465374</t>
+          <t>0.0050942170240415845</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -911,22 +911,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.3585131229758749</t>
+          <t>0.36614885475556225</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>256</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -966,22 +966,22 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.0713803088803089</t>
+          <t>0.059188739364987614</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -1021,22 +1021,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.19450481471600273</t>
+          <t>0.17586551643064083</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>129</t>
         </is>
       </c>
     </row>
@@ -1076,22 +1076,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.007894736842105263</t>
+          <t>0.008485380061607452</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -1131,22 +1131,22 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.40803538320038774</t>
+          <t>0.3933875323082539</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>281</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -1186,22 +1186,22 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.09617117117117116</t>
+          <t>0.07302324865628465</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -1241,22 +1241,22 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.20376991044272175</t>
+          <t>0.21392510891698965</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>172</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>151</t>
         </is>
       </c>
     </row>
@@ -1296,22 +1296,22 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.00861244019138756</t>
+          <t>0.014545454545454544</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -1351,22 +1351,22 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.44955676718131843</t>
+          <t>0.41222914756451157</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>294</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>121</t>
         </is>
       </c>
     </row>
@@ -1406,22 +1406,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.5499981994318174</t>
+          <t>0.5020991598456871</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>311</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>106</t>
         </is>
       </c>
     </row>
@@ -1461,22 +1461,22 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.28271048976903196</t>
+          <t>0.2804110251331793</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>196</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -1516,22 +1516,22 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.0818602656373554</t>
+          <t>0.05672182945845492</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>105</t>
         </is>
       </c>
     </row>
@@ -1571,22 +1571,22 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.5311453898482065</t>
+          <t>0.5582468453910179</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>156</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>36</t>
         </is>
       </c>
     </row>
@@ -1626,22 +1626,22 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.5220298712815887</t>
+          <t>0.4837672470221262</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>313</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>147</t>
         </is>
       </c>
     </row>
@@ -1681,22 +1681,22 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.2222136328064399</t>
+          <t>0.2056504620194151</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>104</t>
         </is>
       </c>
     </row>
@@ -1736,22 +1736,22 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.09748061685558919</t>
+          <t>0.05394919824038595</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>115</t>
         </is>
       </c>
     </row>
@@ -1791,22 +1791,22 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.501472810449509</t>
+          <t>0.5392337544667483</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>374</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -1846,22 +1846,22 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.47950473435240615</t>
+          <t>0.464053257818993</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>295</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -1901,22 +1901,22 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.20829250399460483</t>
+          <t>0.18930116544676023</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>127</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -1956,22 +1956,22 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.5679143676760485</t>
+          <t>0.5697940915774719</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>354</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>160</t>
         </is>
       </c>
     </row>
@@ -2011,22 +2011,22 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.20928258517345044</t>
+          <t>0.2293487227958325</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>175</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>159</t>
         </is>
       </c>
     </row>
@@ -2066,22 +2066,22 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.4393890240682446</t>
+          <t>0.4578413315343755</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>299</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -2121,22 +2121,22 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.12333794304191023</t>
+          <t>0.13977108290797502</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -2176,22 +2176,22 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.4812807068962029</t>
+          <t>0.5199221639413525</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>305</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -2231,22 +2231,22 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.2324430220941847</t>
+          <t>0.24401147548371832</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>184</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>174</t>
         </is>
       </c>
     </row>
@@ -2286,22 +2286,22 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.5406023328306225</t>
+          <t>0.5854880102184091</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>358</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>117</t>
         </is>
       </c>
     </row>
@@ -2341,22 +2341,22 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.30001572637103285</t>
+          <t>0.3085276644621346</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>197</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>104</t>
         </is>
       </c>
     </row>
@@ -2396,22 +2396,22 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.6086962679559784</t>
+          <t>0.6361113210327349</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>380</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>121</t>
         </is>
       </c>
     </row>
@@ -2451,22 +2451,22 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.39538691387187347</t>
+          <t>0.3956762557929637</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>234</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -2506,22 +2506,22 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.5036228938176992</t>
+          <t>0.5691536574583946</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>351</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>119</t>
         </is>
       </c>
     </row>
@@ -2561,22 +2561,22 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.3052901404906269</t>
+          <t>0.32178659800085085</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>199</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -2616,22 +2616,22 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.5959787104131968</t>
+          <t>0.6418846393041185</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>384</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.40343632251425127</t>
+          <t>0.40352183049999457</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>246</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -2726,22 +2726,22 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.5998538129324469</t>
+          <t>0.6483795973683162</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>380</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.49740907291781705</t>
+          <t>0.4801508447112035</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>286</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>137</t>
         </is>
       </c>
     </row>
@@ -2836,22 +2836,22 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.6032966581929072</t>
+          <t>0.6313973453660436</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>361</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -2891,22 +2891,22 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.4461258257327663</t>
+          <t>0.49690979837161925</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>289</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>116</t>
         </is>
       </c>
     </row>
@@ -2946,22 +2946,22 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.6919288387510135</t>
+          <t>0.6917465885674078</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>408</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -3001,22 +3001,22 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.40687474437022103</t>
+          <t>0.42258770274607765</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>238</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -3056,22 +3056,22 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.6692708654936687</t>
+          <t>0.6931104075154826</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>402</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -3111,22 +3111,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.45124413928913004</t>
+          <t>0.45956276594235423</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>268</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>109</t>
         </is>
       </c>
     </row>
@@ -3166,22 +3166,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.6369696442783419</t>
+          <t>0.6589833678345323</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>377</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -3221,22 +3221,22 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.5632751471433535</t>
+          <t>0.5628273571318646</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>345</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>192</t>
         </is>
       </c>
     </row>
@@ -3276,22 +3276,22 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.7126027191617627</t>
+          <t>0.7062014201286732</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>404</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -3331,22 +3331,22 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.5491062813046539</t>
+          <t>0.5382461924364766</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>312</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>138</t>
         </is>
       </c>
     </row>
@@ -3386,22 +3386,22 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.6674214245184913</t>
+          <t>0.6813542932453317</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -3441,22 +3441,22 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.5625416977834566</t>
+          <t>0.5993803226016896</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>343</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>156</t>
         </is>
       </c>
     </row>
@@ -3496,22 +3496,22 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.6842920237587228</t>
+          <t>0.6748724106046394</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>387</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -3551,22 +3551,22 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.5654914805884972</t>
+          <t>0.566575382775404</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>319</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>109</t>
         </is>
       </c>
     </row>
@@ -3606,22 +3606,22 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.4850992726464822</t>
+          <t>0.49009052231644085</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>302</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -3661,22 +3661,22 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.2026192798002247</t>
+          <t>0.20145503229028944</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>136</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -3716,22 +3716,22 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.4345621943479519</t>
+          <t>0.49981488000771646</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>300</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -3771,22 +3771,22 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.29140384459301144</t>
+          <t>0.31471233465363807</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>222</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>186</t>
         </is>
       </c>
     </row>
@@ -3826,22 +3826,22 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.45579476674206176</t>
+          <t>0.4684783189869939</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>293</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -3881,22 +3881,22 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.15182166473674338</t>
+          <t>0.18086308501166448</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>142</t>
         </is>
       </c>
     </row>
@@ -3936,22 +3936,22 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.4609396939211557</t>
+          <t>0.502129303109562</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>294</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -3991,22 +3991,22 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.2678848259634164</t>
+          <t>0.30634872556394116</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>215</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>167</t>
         </is>
       </c>
     </row>
@@ -4046,22 +4046,22 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.5966031499405497</t>
+          <t>0.6166342644009538</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
           <t>148</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>44</t>
         </is>
       </c>
     </row>
@@ -4101,22 +4101,22 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.22011386277319644</t>
+          <t>0.26932662958183606</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -4156,22 +4156,22 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.6603831452799078</t>
+          <t>0.6581492536275316</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>139</t>
         </is>
       </c>
     </row>
@@ -4211,22 +4211,22 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.45306011213526104</t>
+          <t>0.4437998166966948</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>280</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>174</t>
         </is>
       </c>
     </row>
@@ -4266,22 +4266,22 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.5690001912507578</t>
+          <t>0.5894826624913626</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>363</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>128</t>
         </is>
       </c>
     </row>
@@ -4321,22 +4321,22 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.26480871919288196</t>
+          <t>0.2702629658163207</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>165</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -4376,22 +4376,22 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.6128512262731429</t>
+          <t>0.6492456621403905</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>384</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>123</t>
         </is>
       </c>
     </row>
@@ -4431,22 +4431,22 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.40079185727094196</t>
+          <t>0.38834704009280047</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>233</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>115</t>
         </is>
       </c>
     </row>
@@ -4486,22 +4486,22 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.6005604724851372</t>
+          <t>0.6466732577858021</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>383</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -4541,22 +4541,22 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.48772565361151426</t>
+          <t>0.5004656643930193</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>301</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>188</t>
         </is>
       </c>
     </row>
@@ -4596,22 +4596,22 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.6628174889660432</t>
+          <t>0.6879942550490987</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>399</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -4651,22 +4651,22 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.4291752781896649</t>
+          <t>0.4160719135765169</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -4706,22 +4706,22 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.6315812489662018</t>
+          <t>0.6681599684164331</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>396</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>109</t>
         </is>
       </c>
     </row>
@@ -4761,22 +4761,22 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.45617733361598684</t>
+          <t>0.4416092402138336</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>281</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>167</t>
         </is>
       </c>
     </row>
@@ -4816,22 +4816,22 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.6648459975843078</t>
+          <t>0.6845922290484673</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>401</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -4871,22 +4871,22 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.45122935087139876</t>
+          <t>0.43072855557571854</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>273</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -4926,22 +4926,22 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.6471430099196951</t>
+          <t>0.6750614226223737</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>389</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -4981,22 +4981,22 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.645770218963185</t>
+          <t>0.6170482136381515</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>378</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>294</t>
         </is>
       </c>
     </row>
@@ -5036,22 +5036,22 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0.6814123463994041</t>
+          <t>0.7006836759472496</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>399</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -5091,22 +5091,22 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.5623789581784022</t>
+          <t>0.5628923981473314</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>313</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -5146,22 +5146,22 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.6717481512464876</t>
+          <t>0.6930615236368505</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>401</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -5201,22 +5201,22 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.6082781348373286</t>
+          <t>0.5801830576375149</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>199</t>
         </is>
       </c>
     </row>
@@ -5256,22 +5256,22 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.6891575224666985</t>
+          <t>0.7040500218185192</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>405</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -5311,22 +5311,22 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.5697774582243192</t>
+          <t>0.5565580617481136</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>313</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>106</t>
         </is>
       </c>
     </row>
@@ -5366,22 +5366,22 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.44117971581011484</t>
+          <t>0.43155083652542064</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>289</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -5421,22 +5421,22 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.2382795218308319</t>
+          <t>0.2393039874084115</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>194</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>160</t>
         </is>
       </c>
     </row>
@@ -5476,22 +5476,22 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.47473068409507135</t>
+          <t>0.5297254405495214</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>319</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -5531,22 +5531,22 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.2873612426719847</t>
+          <t>0.31435948071414077</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>209</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>137</t>
         </is>
       </c>
     </row>
@@ -5586,22 +5586,22 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.4984949277536001</t>
+          <t>0.5229639379287656</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>341</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>197</t>
         </is>
       </c>
     </row>
@@ -5641,22 +5641,22 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.14712014652014654</t>
+          <t>0.14161102030681244</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>111</t>
         </is>
       </c>
     </row>
@@ -5696,22 +5696,22 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.4705131453046282</t>
+          <t>0.5354111552774405</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -5751,22 +5751,22 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.29354693554271677</t>
+          <t>0.3062811374528106</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>207</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>162</t>
         </is>
       </c>
     </row>
@@ -5806,22 +5806,22 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.5684558348526588</t>
+          <t>0.5858653165221136</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>359</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>114</t>
         </is>
       </c>
     </row>
@@ -5861,22 +5861,22 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.31210964799099933</t>
+          <t>0.27679393136967334</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>175</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -5916,22 +5916,22 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.6175148716031875</t>
+          <t>0.6382244129534104</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>383</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>145</t>
         </is>
       </c>
     </row>
@@ -5971,22 +5971,22 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.36166319476223374</t>
+          <t>0.3433082518110087</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>207</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -6026,22 +6026,22 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0.5114477934312636</t>
+          <t>0.5578941724995705</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>343</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>128</t>
         </is>
       </c>
     </row>
@@ -6081,22 +6081,22 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0.19135190615835784</t>
+          <t>0.19779519777587995</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -6136,22 +6136,22 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.6259286875179111</t>
+          <t>0.664117404540628</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>398</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>165</t>
         </is>
       </c>
     </row>
@@ -6191,22 +6191,22 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0.37400070962581666</t>
+          <t>0.35514164952486316</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>223</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -6246,22 +6246,22 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>0.6776201577603592</t>
+          <t>0.6994581303230977</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>421</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>160</t>
         </is>
       </c>
     </row>
@@ -6301,22 +6301,22 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0.3552237181678524</t>
+          <t>0.3711264276896803</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>233</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -6356,22 +6356,22 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0.6772787238631459</t>
+          <t>0.6878825223125242</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>402</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -6411,22 +6411,22 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0.4081558657834186</t>
+          <t>0.4218768639259167</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>243</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -6466,22 +6466,22 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>0.6621075095133698</t>
+          <t>0.6812262378232421</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>396</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -6521,22 +6521,22 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>0.4550132435890632</t>
+          <t>0.4793452726927194</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>284</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>145</t>
         </is>
       </c>
     </row>
@@ -6576,22 +6576,22 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0.6830053679733029</t>
+          <t>0.6918728829907629</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>399</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -6631,22 +6631,22 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0.5304140788367889</t>
+          <t>0.5378385374972641</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>309</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>149</t>
         </is>
       </c>
     </row>
@@ -6686,22 +6686,22 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0.6320601870621221</t>
+          <t>0.6665910325374752</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>381</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -6741,22 +6741,22 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0.5827182864945435</t>
+          <t>0.5884792826031617</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>362</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>206</t>
         </is>
       </c>
     </row>
@@ -6796,22 +6796,22 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0.6076278582673423</t>
+          <t>0.6453630843881621</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>372</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -6851,22 +6851,22 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>0.5530148355480176</t>
+          <t>0.5490884016267968</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>316</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>139</t>
         </is>
       </c>
     </row>
@@ -6906,22 +6906,22 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0.628921066980788</t>
+          <t>0.6754746019157345</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>387</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -6961,22 +6961,22 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>0.5413165888284345</t>
+          <t>0.5673274726127756</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>329</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>175</t>
         </is>
       </c>
     </row>
@@ -7016,22 +7016,22 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>0.6961031200039475</t>
+          <t>0.6971592549425405</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>398</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -7071,22 +7071,22 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>0.4792731830422831</t>
+          <t>0.5239102811698308</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>303</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -7126,22 +7126,22 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>0.3699685620302217</t>
+          <t>0.4038320265857187</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>216</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>213</t>
         </is>
       </c>
     </row>
@@ -7181,22 +7181,22 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>0.4125196151152136</t>
+          <t>0.43835091438106133</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>378</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>327</t>
         </is>
       </c>
     </row>
@@ -7236,22 +7236,22 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>0.5165144146495501</t>
+          <t>0.49616526345798195</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>235</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>159</t>
         </is>
       </c>
     </row>
@@ -7291,22 +7291,22 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>0.5073141959441554</t>
+          <t>0.52753523421098</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>225</t>
         </is>
       </c>
     </row>
@@ -7346,22 +7346,22 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>0.39280567569627123</t>
+          <t>0.44196268098351704</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>234</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>209</t>
         </is>
       </c>
     </row>
@@ -7401,22 +7401,22 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>0.41137834878512286</t>
+          <t>0.4602963847733381</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>374</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>293</t>
         </is>
       </c>
     </row>
@@ -7456,22 +7456,22 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>0.4044549874624299</t>
+          <t>0.48839939359309276</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>228</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -7511,22 +7511,22 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>0.5052308508100548</t>
+          <t>0.5160185982960531</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>382</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>180</t>
         </is>
       </c>
     </row>
@@ -7566,22 +7566,22 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>0.3330731817052322</t>
+          <t>0.3573444199081677</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>169</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -7621,22 +7621,22 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>0.5087523574284205</t>
+          <t>0.5527938710555832</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>392</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>196</t>
         </is>
       </c>
     </row>
@@ -7676,22 +7676,22 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>0.4708017617028646</t>
+          <t>0.48414011519758104</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>220</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>114</t>
         </is>
       </c>
     </row>
@@ -7731,22 +7731,22 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>0.5679872880438817</t>
+          <t>0.6078119792022967</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>432</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>258</t>
         </is>
       </c>
     </row>
@@ -7786,22 +7786,22 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>0.45518326306010015</t>
+          <t>0.47591289431955747</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>212</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>0.5266356144253503</t>
+          <t>0.5747131596227032</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>432</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>296</t>
         </is>
       </c>
     </row>
@@ -7896,22 +7896,22 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>0.4506337423207517</t>
+          <t>0.48369390136501694</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>218</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -7951,22 +7951,22 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>0.6279395031290482</t>
+          <t>0.6186136545329214</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>434</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>186</t>
         </is>
       </c>
     </row>
@@ -8006,22 +8006,22 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>0.5406068801140126</t>
+          <t>0.5555387988963041</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>263</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>141</t>
         </is>
       </c>
     </row>
@@ -8061,22 +8061,22 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>0.6138664510886405</t>
+          <t>0.6503431015627108</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>452</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -8116,22 +8116,22 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>0.5997597944981999</t>
+          <t>0.6347980290021819</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>284</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -8171,22 +8171,22 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>0.650219571688646</t>
+          <t>0.6615223636271164</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>447</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>117</t>
         </is>
       </c>
     </row>
@@ -8226,22 +8226,22 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>0.5618799944357187</t>
+          <t>0.5804561337655817</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>274</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>179</t>
         </is>
       </c>
     </row>
@@ -8281,22 +8281,22 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>0.6312177468698381</t>
+          <t>0.6485014806377576</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>456</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>191</t>
         </is>
       </c>
     </row>
@@ -8336,22 +8336,22 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>0.6418678063456915</t>
+          <t>0.6602829725010886</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>294</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>154</t>
         </is>
       </c>
     </row>
@@ -8391,22 +8391,22 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>0.6083928211236289</t>
+          <t>0.6305857946829314</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>423</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -8446,22 +8446,22 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>0.643729375790682</t>
+          <t>0.6480274334116826</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>288</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -8501,22 +8501,22 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>0.6568390420779443</t>
+          <t>0.6929855004949759</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>466</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>136</t>
         </is>
       </c>
     </row>
@@ -8556,22 +8556,22 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>0.703086345458492</t>
+          <t>0.7021607191751026</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>302</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>104</t>
         </is>
       </c>
     </row>
@@ -8611,22 +8611,22 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>0.6288146468397855</t>
+          <t>0.6525579442690755</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>428</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -8666,22 +8666,22 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>0.6093056403227284</t>
+          <t>0.6197510321781499</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>269</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -8721,22 +8721,22 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>0.6880628799216814</t>
+          <t>0.7116108421749789</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>476</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>168</t>
         </is>
       </c>
     </row>
@@ -8776,22 +8776,22 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>0.7262991230895098</t>
+          <t>0.7191308648331455</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>310</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>122</t>
         </is>
       </c>
     </row>
@@ -8831,22 +8831,22 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>0.6593850048861108</t>
+          <t>0.6811076008934155</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>451</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -8886,22 +8886,22 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>0.45319382643247547</t>
+          <t>0.49593465439176304</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>261</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>289</t>
         </is>
       </c>
     </row>
@@ -8941,22 +8941,22 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>0.3813752057871049</t>
+          <t>0.40616776870174925</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>330</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>228</t>
         </is>
       </c>
     </row>
@@ -8996,22 +8996,22 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>0.5053838503640871</t>
+          <t>0.5354689225385311</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>257</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>197</t>
         </is>
       </c>
     </row>
@@ -9051,22 +9051,22 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>0.4900031266813298</t>
+          <t>0.499713692050886</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>368</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>168</t>
         </is>
       </c>
     </row>
@@ -9106,22 +9106,22 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>0.4256679276076316</t>
+          <t>0.44159604909201966</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>242</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>263</t>
         </is>
       </c>
     </row>
@@ -9161,22 +9161,22 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>0.2746743247390325</t>
+          <t>0.3368127390629285</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>300</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>203</t>
         </is>
       </c>
     </row>
@@ -9216,22 +9216,22 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>0.4729562519636948</t>
+          <t>0.43693643808364346</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>219</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>114</t>
         </is>
       </c>
     </row>
@@ -9271,22 +9271,22 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>0.3833509039115625</t>
+          <t>0.43713970958260956</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>172</t>
         </is>
       </c>
     </row>
@@ -9326,22 +9326,22 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>0.37480533208365907</t>
+          <t>0.39734638446415516</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>193</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>104</t>
         </is>
       </c>
     </row>
@@ -9381,22 +9381,22 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>0.5130452264152678</t>
+          <t>0.5361888053424498</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>404</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>294</t>
         </is>
       </c>
     </row>
@@ -9436,22 +9436,22 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>0.5256235100763669</t>
+          <t>0.5182080387317479</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -9491,22 +9491,22 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>0.5476138132333987</t>
+          <t>0.5714052943040797</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>395</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>176</t>
         </is>
       </c>
     </row>
@@ -9546,22 +9546,22 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>0.4661765517945211</t>
+          <t>0.45584781135231145</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>220</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -9601,22 +9601,22 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>0.517983076817719</t>
+          <t>0.5578187388820389</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>382</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>144</t>
         </is>
       </c>
     </row>
@@ -9656,22 +9656,22 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>0.4477058558432539</t>
+          <t>0.4952276102677544</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>228</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -9711,22 +9711,22 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>0.6417400245466391</t>
+          <t>0.6618008076891085</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>464</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>250</t>
         </is>
       </c>
     </row>
@@ -9766,22 +9766,22 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>0.5988529262671556</t>
+          <t>0.5860593079200889</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>257</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -9821,22 +9821,22 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>0.6290169101579919</t>
+          <t>0.6554896872800089</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>448</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -9876,22 +9876,22 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>0.6756541357130031</t>
+          <t>0.6655887047660016</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>291</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>141</t>
         </is>
       </c>
     </row>
@@ -9931,22 +9931,22 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>0.5652928050367088</t>
+          <t>0.6013614970088069</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>397</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -9986,22 +9986,22 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>0.61527343665158</t>
+          <t>0.6172754842490149</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>274</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>136</t>
         </is>
       </c>
     </row>
@@ -10041,22 +10041,22 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>0.623369482325532</t>
+          <t>0.6722820724101799</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>460</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>118</t>
         </is>
       </c>
     </row>
@@ -10096,22 +10096,22 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>0.6630682876599701</t>
+          <t>0.6864798077781831</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -10151,22 +10151,22 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>0.6566226275111533</t>
+          <t>0.6608989935042396</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>444</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -10206,22 +10206,22 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>0.7122431352648653</t>
+          <t>0.6917212868556788</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>299</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -10261,22 +10261,22 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>0.6180942676582716</t>
+          <t>0.6503657337865183</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>435</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -10316,22 +10316,22 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>0.7460176718110616</t>
+          <t>0.7463061946738693</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>332</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>187</t>
         </is>
       </c>
     </row>
@@ -10371,22 +10371,22 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>0.6382216098100839</t>
+          <t>0.6825893508841459</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>448</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -10426,22 +10426,22 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>0.7370571425967963</t>
+          <t>0.6983222677204359</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>301</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -10481,22 +10481,22 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>0.6703650931771673</t>
+          <t>0.6931845456274166</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>462</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -10536,22 +10536,22 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>0.7124668210195548</t>
+          <t>0.7260869678450242</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>308</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -10591,22 +10591,22 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>0.6375500591191646</t>
+          <t>0.670672760861837</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>440</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -10646,22 +10646,22 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>0.40962952629434635</t>
+          <t>0.4420712655527532</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>227</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>170</t>
         </is>
       </c>
     </row>
@@ -10701,22 +10701,22 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>0.39664158623309226</t>
+          <t>0.3937574003818196</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>322</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>235</t>
         </is>
       </c>
     </row>
@@ -10756,22 +10756,22 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>0.48429504085339564</t>
+          <t>0.5017476267232034</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>246</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>135</t>
         </is>
       </c>
     </row>
@@ -10811,22 +10811,22 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>0.49180329621924296</t>
+          <t>0.5003162143993295</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>359</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>147</t>
         </is>
       </c>
     </row>
@@ -10866,22 +10866,22 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>0.3978376808029647</t>
+          <t>0.41168734397802786</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>232</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>248</t>
         </is>
       </c>
     </row>
@@ -10921,22 +10921,22 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>0.31595340608546874</t>
+          <t>0.3621576921578721</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>196</t>
         </is>
       </c>
     </row>
@@ -10976,22 +10976,22 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>0.4552783550071642</t>
+          <t>0.501113581971956</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>251</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>163</t>
         </is>
       </c>
     </row>
@@ -11031,22 +11031,22 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>0.5360688166321439</t>
+          <t>0.5659539627757386</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>410</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>216</t>
         </is>
       </c>
     </row>
@@ -11086,22 +11086,22 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>0.5852738265735684</t>
+          <t>0.562299654421824</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>264</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>169</t>
         </is>
       </c>
     </row>
@@ -11141,22 +11141,22 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>0.5849642809893945</t>
+          <t>0.604369884941771</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>422</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>245</t>
         </is>
       </c>
     </row>
@@ -11196,22 +11196,22 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>0.4723504608772295</t>
+          <t>0.48924765933505493</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>226</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>125</t>
         </is>
       </c>
     </row>
@@ -11251,22 +11251,22 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>0.5881629658999687</t>
+          <t>0.6069677349407177</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>419</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>196</t>
         </is>
       </c>
     </row>
@@ -11306,22 +11306,22 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>0.3824806271487069</t>
+          <t>0.32306205632963936</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>193</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>133</t>
         </is>
       </c>
     </row>
@@ -11361,22 +11361,22 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>0.4718123213981856</t>
+          <t>0.46575668589637725</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>312</t>
         </is>
       </c>
     </row>
@@ -11416,22 +11416,22 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>0.559636835324269</t>
+          <t>0.556710232529315</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>261</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>125</t>
         </is>
       </c>
     </row>
@@ -11471,22 +11471,22 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>0.5506379237736142</t>
+          <t>0.5858030220805985</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>427</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>170</t>
         </is>
       </c>
     </row>
@@ -11526,22 +11526,22 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>0.5781238975776235</t>
+          <t>0.5937940920866028</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>281</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>168</t>
         </is>
       </c>
     </row>
@@ -11581,22 +11581,22 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>0.6128470858655772</t>
+          <t>0.6601175774908917</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>450</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>137</t>
         </is>
       </c>
     </row>
@@ -11636,22 +11636,22 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>0.7012405611629033</t>
+          <t>0.728506325525021</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>318</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>153</t>
         </is>
       </c>
     </row>
@@ -11691,22 +11691,22 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>0.6361913425363178</t>
+          <t>0.6898414828114162</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>467</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -11746,22 +11746,22 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>0.5780200269716996</t>
+          <t>0.6001111925092634</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>271</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -11801,22 +11801,22 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>0.6165782824190943</t>
+          <t>0.6416654486767462</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>433</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>104</t>
         </is>
       </c>
     </row>
@@ -11856,22 +11856,22 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>0.641749180643002</t>
+          <t>0.6713941104876413</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>291</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>115</t>
         </is>
       </c>
     </row>
@@ -11911,22 +11911,22 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>0.585050496589415</t>
+          <t>0.6437159469741153</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>430</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -11966,22 +11966,22 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>0.6969654107276643</t>
+          <t>0.7020674659732147</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>307</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -12021,22 +12021,22 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>0.6778983036291107</t>
+          <t>0.7172659947174739</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>486</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>175</t>
         </is>
       </c>
     </row>
@@ -12076,22 +12076,22 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>0.76243670486543</t>
+          <t>0.7597680918600526</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>327</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>139</t>
         </is>
       </c>
     </row>
@@ -12131,22 +12131,22 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>0.6580461104957036</t>
+          <t>0.6588157844991285</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>436</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -12186,22 +12186,22 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>0.6055490068919078</t>
+          <t>0.62434672328557</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>278</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -12241,22 +12241,22 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>0.6226172329909477</t>
+          <t>0.6848228289168697</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>456</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>116</t>
         </is>
       </c>
     </row>
@@ -12296,22 +12296,22 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>0.7466118446660223</t>
+          <t>0.735485095327534</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>314</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>152</t>
         </is>
       </c>
     </row>
@@ -12351,22 +12351,22 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>0.6734279889102283</t>
+          <t>0.7038396053326279</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>465</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>117</t>
         </is>
       </c>
     </row>
